--- a/output/VERDE_22188086000160.xlsx
+++ b/output/VERDE_22188086000160.xlsx
@@ -1131,10 +1131,10 @@
         <v>44165</v>
       </c>
       <c r="B68">
-        <v>0.7383096759586978</v>
+        <v>0.7387006196668451</v>
       </c>
       <c r="C68">
-        <v>0.03667622521900493</v>
+        <v>0.03690937242703152</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_22188086000160.xlsx
+++ b/output/VERDE_22188086000160.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE 14 FUNDO DE INVESTIMENTO EM COTAS FUNDO DE INVESTIMENTO MULT</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,755 +383,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42155</v>
       </c>
       <c r="B2">
-        <v>0.03293058459072662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42185</v>
       </c>
       <c r="B3">
-        <v>0.03132827580554154</v>
-      </c>
-      <c r="C3">
         <v>-0.001551226005975903</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42216</v>
       </c>
       <c r="B4">
-        <v>0.08708137234500235</v>
-      </c>
-      <c r="C4">
         <v>0.0540595054430304</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42247</v>
       </c>
       <c r="B5">
-        <v>0.08373778531943432</v>
-      </c>
-      <c r="C5">
         <v>-0.003075746775382027</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42277</v>
       </c>
       <c r="B6">
-        <v>0.09865764563302393</v>
-      </c>
-      <c r="C6">
         <v>0.01376703896062081</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42308</v>
       </c>
       <c r="B7">
-        <v>0.1160045268955341</v>
-      </c>
-      <c r="C7">
         <v>0.0157891599184341</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42338</v>
       </c>
       <c r="B8">
-        <v>0.1436547238513377</v>
-      </c>
-      <c r="C8">
         <v>0.02477606164620139</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42369</v>
       </c>
       <c r="B9">
-        <v>0.1554915886395729</v>
-      </c>
-      <c r="C9">
         <v>0.01035003357339681</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42400</v>
       </c>
       <c r="B10">
-        <v>0.1680646397189538</v>
-      </c>
-      <c r="C10">
         <v>0.01088112730806112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42429</v>
       </c>
       <c r="B11">
-        <v>0.1768346737491169</v>
-      </c>
-      <c r="C11">
         <v>0.007508175260123595</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42460</v>
       </c>
       <c r="B12">
-        <v>0.1476931997534019</v>
-      </c>
-      <c r="C12">
         <v>-0.02476258955123845</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42490</v>
       </c>
       <c r="B13">
-        <v>0.16786613399955</v>
-      </c>
-      <c r="C13">
         <v>0.01757693976968988</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42521</v>
       </c>
       <c r="B14">
-        <v>0.1856117442073912</v>
-      </c>
-      <c r="C14">
         <v>0.01519490093189746</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42551</v>
       </c>
       <c r="B15">
-        <v>0.2064971167998098</v>
-      </c>
-      <c r="C15">
         <v>0.01761569307529154</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42582</v>
       </c>
       <c r="B16">
-        <v>0.2284728504888822</v>
-      </c>
-      <c r="C16">
         <v>0.0182144933320374</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42613</v>
       </c>
       <c r="B17">
-        <v>0.2485535207600065</v>
-      </c>
-      <c r="C17">
         <v>0.01634604318942245</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42643</v>
       </c>
       <c r="B18">
-        <v>0.2635261721132187</v>
-      </c>
-      <c r="C18">
         <v>0.01199199802351947</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42674</v>
       </c>
       <c r="B19">
-        <v>0.2772600793148079</v>
-      </c>
-      <c r="C19">
         <v>0.01086950749790927</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42704</v>
       </c>
       <c r="B20">
-        <v>0.290398903192014</v>
-      </c>
-      <c r="C20">
         <v>0.01028672553850929</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42735</v>
       </c>
       <c r="B21">
-        <v>0.3301024658449163</v>
-      </c>
-      <c r="C21">
         <v>0.03076844110351384</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42766</v>
       </c>
       <c r="B22">
-        <v>0.3315287985550981</v>
-      </c>
-      <c r="C22">
         <v>0.001072347993337219</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42794</v>
       </c>
       <c r="B23">
-        <v>0.3495334491586453</v>
-      </c>
-      <c r="C23">
         <v>0.01352178835567419</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42825</v>
       </c>
       <c r="B24">
-        <v>0.3645174099060262</v>
-      </c>
-      <c r="C24">
         <v>0.01110306732798838</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42855</v>
       </c>
       <c r="B25">
-        <v>0.3704251509706062</v>
-      </c>
-      <c r="C25">
         <v>0.004329546125019235</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42886</v>
       </c>
       <c r="B26">
-        <v>0.3582728949324834</v>
-      </c>
-      <c r="C26">
         <v>-0.008867508035383054</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42916</v>
       </c>
       <c r="B27">
-        <v>0.3643513406939127</v>
-      </c>
-      <c r="C27">
         <v>0.004475128513649285</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42947</v>
       </c>
       <c r="B28">
-        <v>0.3901597585345098</v>
-      </c>
-      <c r="C28">
         <v>0.01891625497833349</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42978</v>
       </c>
       <c r="B29">
-        <v>0.3952592136915198</v>
-      </c>
-      <c r="C29">
         <v>0.003668251167323167</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43008</v>
       </c>
       <c r="B30">
-        <v>0.4024128482514882</v>
-      </c>
-      <c r="C30">
         <v>0.005127100749287683</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43039</v>
       </c>
       <c r="B31">
-        <v>0.3970251491449386</v>
-      </c>
-      <c r="C31">
         <v>-0.003841735415692216</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43069</v>
       </c>
       <c r="B32">
-        <v>0.3909554097747112</v>
-      </c>
-      <c r="C32">
         <v>-0.004344760274317516</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43100</v>
       </c>
       <c r="B33">
-        <v>0.3995574906842208</v>
-      </c>
-      <c r="C33">
         <v>0.006184296670518563</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43131</v>
       </c>
       <c r="B34">
-        <v>0.4422245008997359</v>
-      </c>
-      <c r="C34">
         <v>0.03048607184736363</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43159</v>
       </c>
       <c r="B35">
-        <v>0.4439214151740287</v>
-      </c>
-      <c r="C35">
         <v>0.00117659509544743</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43190</v>
       </c>
       <c r="B36">
-        <v>0.4522611335904387</v>
-      </c>
-      <c r="C36">
         <v>0.00577574259150726</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43220</v>
       </c>
       <c r="B37">
-        <v>0.4496533643944092</v>
-      </c>
-      <c r="C37">
         <v>-0.001795661355738609</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43251</v>
       </c>
       <c r="B38">
-        <v>0.4234944207068005</v>
-      </c>
-      <c r="C38">
         <v>-0.01804496463093197</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43281</v>
       </c>
       <c r="B39">
-        <v>0.4275809689627437</v>
-      </c>
-      <c r="C39">
         <v>0.002870786282333393</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43312</v>
       </c>
       <c r="B40">
-        <v>0.443281884682547</v>
-      </c>
-      <c r="C40">
         <v>0.01099826634086565</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43343</v>
       </c>
       <c r="B41">
-        <v>0.4532753122783437</v>
-      </c>
-      <c r="C41">
         <v>0.006924099652227511</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43373</v>
       </c>
       <c r="B42">
-        <v>0.4488618494328949</v>
-      </c>
-      <c r="C42">
         <v>-0.003036907603232941</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43404</v>
       </c>
       <c r="B43">
-        <v>0.5034692562053333</v>
-      </c>
-      <c r="C43">
         <v>0.03768986449178202</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43434</v>
       </c>
       <c r="B44">
-        <v>0.5117662568470269</v>
-      </c>
-      <c r="C44">
         <v>0.005518570205176543</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43465</v>
       </c>
       <c r="B45">
-        <v>0.5098093097078604</v>
-      </c>
-      <c r="C45">
         <v>-0.001294477324323862</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43496</v>
       </c>
       <c r="B46">
-        <v>0.5668320239158682</v>
-      </c>
-      <c r="C46">
         <v>0.03776815644290954</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43524</v>
       </c>
       <c r="B47">
-        <v>0.5680634998651433</v>
-      </c>
-      <c r="C47">
         <v>0.0007859655218160899</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43555</v>
       </c>
       <c r="B48">
-        <v>0.5745683983363794</v>
-      </c>
-      <c r="C48">
         <v>0.004148364190478038</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43585</v>
       </c>
       <c r="B49">
-        <v>0.588257133333514</v>
-      </c>
-      <c r="C49">
         <v>0.008693642658901046</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43616</v>
       </c>
       <c r="B50">
-        <v>0.6086044984930872</v>
-      </c>
-      <c r="C50">
         <v>0.01281112782844374</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43646</v>
       </c>
       <c r="B51">
-        <v>0.6324767100172444</v>
-      </c>
-      <c r="C51">
         <v>0.01484032373807254</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43677</v>
       </c>
       <c r="B52">
-        <v>0.6395594276036889</v>
-      </c>
-      <c r="C52">
         <v>0.004338633159654437</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43708</v>
       </c>
       <c r="B53">
-        <v>0.6423976457632929</v>
-      </c>
-      <c r="C53">
         <v>0.001731085870886773</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43738</v>
       </c>
       <c r="B54">
-        <v>0.6636725654755087</v>
-      </c>
-      <c r="C54">
         <v>0.0129535741646345</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43769</v>
       </c>
       <c r="B55">
-        <v>0.6785291395366007</v>
-      </c>
-      <c r="C55">
         <v>0.008929986807136858</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43799</v>
       </c>
       <c r="B56">
-        <v>0.6785391533722154</v>
-      </c>
-      <c r="C56">
         <v>5.965839602550815e-06</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43830</v>
       </c>
       <c r="B57">
-        <v>0.7107812912216422</v>
-      </c>
-      <c r="C57">
         <v>0.01920845145890815</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43861</v>
       </c>
       <c r="B58">
-        <v>0.7075115807483137</v>
-      </c>
-      <c r="C58">
         <v>-0.001911238151893535</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43890</v>
       </c>
       <c r="B59">
-        <v>0.6586556754331527</v>
-      </c>
-      <c r="C59">
         <v>-0.02861234199872886</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43921</v>
       </c>
       <c r="B60">
-        <v>0.4685674079591227</v>
-      </c>
-      <c r="C60">
         <v>-0.1146038145767591</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>0.5949271739199167</v>
-      </c>
-      <c r="C61">
         <v>0.08604287775689978</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43982</v>
       </c>
       <c r="B62">
-        <v>0.6350884609758034</v>
-      </c>
-      <c r="C62">
         <v>0.02518064003962062</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44012</v>
       </c>
       <c r="B63">
-        <v>0.6499330243770871</v>
-      </c>
-      <c r="C63">
         <v>0.009078752468490103</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44043</v>
       </c>
       <c r="B64">
-        <v>0.6837183745242508</v>
-      </c>
-      <c r="C64">
         <v>0.02047680096585669</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44074</v>
       </c>
       <c r="B65">
-        <v>0.7060829600104102</v>
-      </c>
-      <c r="C65">
         <v>0.01328285408328966</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44104</v>
       </c>
       <c r="B66">
-        <v>0.685193944402424</v>
-      </c>
-      <c r="C66">
         <v>-0.01224384516908761</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44135</v>
       </c>
       <c r="B67">
-        <v>0.6768105930002088</v>
-      </c>
-      <c r="C67">
         <v>-0.004974710139483585</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44165</v>
       </c>
       <c r="B68">
-        <v>0.7387006196668451</v>
-      </c>
-      <c r="C68">
-        <v>0.03690937242703152</v>
+        <v>0.03011216888926738</v>
       </c>
     </row>
   </sheetData>
